--- a/result/03case1.xlsx
+++ b/result/03case1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\Python\Learn_Quant\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7701E4-B690-4FB9-96F2-5E15B9A53FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA0717E-5524-451E-88D8-F7D17EFE9D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="2406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="2406">
   <si>
     <t>Trade Span</t>
   </si>
@@ -52,301 +52,301 @@
     <t>Year Yield</t>
   </si>
   <si>
-    <t>Annual Compound Yield</t>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2016-12-30</t>
+  </si>
+  <si>
+    <t>2017-12-29</t>
+  </si>
+  <si>
+    <t>2018-12-28</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>B/S</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>2014-01-23</t>
+  </si>
+  <si>
+    <t>2014-02-26</t>
+  </si>
+  <si>
+    <t>2014-03-24</t>
+  </si>
+  <si>
+    <t>2014-04-22</t>
+  </si>
+  <si>
+    <t>2014-05-29</t>
+  </si>
+  <si>
+    <t>2014-06-05</t>
+  </si>
+  <si>
+    <t>2014-06-06</t>
+  </si>
+  <si>
+    <t>2014-06-09</t>
+  </si>
+  <si>
+    <t>2014-06-11</t>
+  </si>
+  <si>
+    <t>2014-06-24</t>
+  </si>
+  <si>
+    <t>2014-07-04</t>
+  </si>
+  <si>
+    <t>2014-07-11</t>
+  </si>
+  <si>
+    <t>2014-07-23</t>
+  </si>
+  <si>
+    <t>2014-08-14</t>
+  </si>
+  <si>
+    <t>2014-09-05</t>
+  </si>
+  <si>
+    <t>2014-09-17</t>
+  </si>
+  <si>
+    <t>2014-10-10</t>
+  </si>
+  <si>
+    <t>2014-10-14</t>
+  </si>
+  <si>
+    <t>2014-11-03</t>
+  </si>
+  <si>
+    <t>2014-11-21</t>
+  </si>
+  <si>
+    <t>2014-11-24</t>
+  </si>
+  <si>
+    <t>2014-12-25</t>
+  </si>
+  <si>
+    <t>2015-02-27</t>
+  </si>
+  <si>
+    <t>2015-05-04</t>
+  </si>
+  <si>
+    <t>2015-05-26</t>
+  </si>
+  <si>
+    <t>2015-06-01</t>
+  </si>
+  <si>
+    <t>2015-06-08</t>
+  </si>
+  <si>
+    <t>2015-06-16</t>
+  </si>
+  <si>
+    <t>2015-07-13</t>
+  </si>
+  <si>
+    <t>2015-11-04</t>
+  </si>
+  <si>
+    <t>2015-11-05</t>
+  </si>
+  <si>
+    <t>2015-11-19</t>
+  </si>
+  <si>
+    <t>2015-12-22</t>
+  </si>
+  <si>
+    <t>2016-02-05</t>
+  </si>
+  <si>
+    <t>2016-03-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2016-04-08</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-07-22</t>
+  </si>
+  <si>
+    <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>2016-08-29</t>
+  </si>
+  <si>
+    <t>2016-10-12</t>
+  </si>
+  <si>
+    <t>2016-12-07</t>
+  </si>
+  <si>
+    <t>2017-01-06</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2017-03-28</t>
+  </si>
+  <si>
+    <t>2017-04-17</t>
+  </si>
+  <si>
+    <t>2017-05-15</t>
+  </si>
+  <si>
+    <t>2017-06-16</t>
+  </si>
+  <si>
+    <t>2017-06-27</t>
+  </si>
+  <si>
+    <t>2017-07-05</t>
+  </si>
+  <si>
+    <t>2017-07-14</t>
+  </si>
+  <si>
+    <t>2017-07-28</t>
+  </si>
+  <si>
+    <t>2017-08-25</t>
+  </si>
+  <si>
+    <t>2017-09-11</t>
+  </si>
+  <si>
+    <t>2017-10-12</t>
+  </si>
+  <si>
+    <t>2017-11-29</t>
+  </si>
+  <si>
+    <t>2017-12-27</t>
+  </si>
+  <si>
+    <t>2017-12-28</t>
+  </si>
+  <si>
+    <t>2018-01-03</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2018-03-13</t>
+  </si>
+  <si>
+    <t>2018-10-12</t>
+  </si>
+  <si>
+    <t>2018-10-25</t>
+  </si>
+  <si>
+    <t>2019-03-11</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
+  </si>
+  <si>
+    <t>2020-01-16</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2022-07-08</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2023-03-28</t>
   </si>
   <si>
     <t>2014-01-02</t>
-  </si>
-  <si>
-    <t>2014-12-31</t>
-  </si>
-  <si>
-    <t>2015-12-31</t>
-  </si>
-  <si>
-    <t>2016-12-30</t>
-  </si>
-  <si>
-    <t>2017-12-29</t>
-  </si>
-  <si>
-    <t>2018-12-28</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>2022-12-30</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>B/S</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>2014-01-23</t>
-  </si>
-  <si>
-    <t>2014-02-26</t>
-  </si>
-  <si>
-    <t>2014-03-24</t>
-  </si>
-  <si>
-    <t>2014-04-22</t>
-  </si>
-  <si>
-    <t>2014-05-29</t>
-  </si>
-  <si>
-    <t>2014-06-05</t>
-  </si>
-  <si>
-    <t>2014-06-06</t>
-  </si>
-  <si>
-    <t>2014-06-09</t>
-  </si>
-  <si>
-    <t>2014-06-11</t>
-  </si>
-  <si>
-    <t>2014-06-24</t>
-  </si>
-  <si>
-    <t>2014-07-04</t>
-  </si>
-  <si>
-    <t>2014-07-11</t>
-  </si>
-  <si>
-    <t>2014-07-23</t>
-  </si>
-  <si>
-    <t>2014-08-14</t>
-  </si>
-  <si>
-    <t>2014-09-05</t>
-  </si>
-  <si>
-    <t>2014-09-17</t>
-  </si>
-  <si>
-    <t>2014-10-10</t>
-  </si>
-  <si>
-    <t>2014-10-14</t>
-  </si>
-  <si>
-    <t>2014-11-03</t>
-  </si>
-  <si>
-    <t>2014-11-21</t>
-  </si>
-  <si>
-    <t>2014-11-24</t>
-  </si>
-  <si>
-    <t>2014-12-25</t>
-  </si>
-  <si>
-    <t>2015-02-27</t>
-  </si>
-  <si>
-    <t>2015-05-04</t>
-  </si>
-  <si>
-    <t>2015-05-26</t>
-  </si>
-  <si>
-    <t>2015-06-01</t>
-  </si>
-  <si>
-    <t>2015-06-08</t>
-  </si>
-  <si>
-    <t>2015-06-16</t>
-  </si>
-  <si>
-    <t>2015-07-13</t>
-  </si>
-  <si>
-    <t>2015-11-04</t>
-  </si>
-  <si>
-    <t>2015-11-05</t>
-  </si>
-  <si>
-    <t>2015-11-19</t>
-  </si>
-  <si>
-    <t>2015-12-22</t>
-  </si>
-  <si>
-    <t>2016-02-05</t>
-  </si>
-  <si>
-    <t>2016-03-30</t>
-  </si>
-  <si>
-    <t>2016-03-31</t>
-  </si>
-  <si>
-    <t>2016-04-08</t>
-  </si>
-  <si>
-    <t>2016-05-31</t>
-  </si>
-  <si>
-    <t>2016-07-22</t>
-  </si>
-  <si>
-    <t>2016-08-15</t>
-  </si>
-  <si>
-    <t>2016-08-29</t>
-  </si>
-  <si>
-    <t>2016-10-12</t>
-  </si>
-  <si>
-    <t>2016-12-07</t>
-  </si>
-  <si>
-    <t>2017-01-06</t>
-  </si>
-  <si>
-    <t>2017-02-28</t>
-  </si>
-  <si>
-    <t>2017-03-28</t>
-  </si>
-  <si>
-    <t>2017-04-17</t>
-  </si>
-  <si>
-    <t>2017-05-15</t>
-  </si>
-  <si>
-    <t>2017-06-16</t>
-  </si>
-  <si>
-    <t>2017-06-27</t>
-  </si>
-  <si>
-    <t>2017-07-05</t>
-  </si>
-  <si>
-    <t>2017-07-14</t>
-  </si>
-  <si>
-    <t>2017-07-28</t>
-  </si>
-  <si>
-    <t>2017-08-25</t>
-  </si>
-  <si>
-    <t>2017-09-11</t>
-  </si>
-  <si>
-    <t>2017-10-12</t>
-  </si>
-  <si>
-    <t>2017-11-29</t>
-  </si>
-  <si>
-    <t>2017-12-27</t>
-  </si>
-  <si>
-    <t>2017-12-28</t>
-  </si>
-  <si>
-    <t>2018-01-03</t>
-  </si>
-  <si>
-    <t>2018-01-31</t>
-  </si>
-  <si>
-    <t>2018-03-13</t>
-  </si>
-  <si>
-    <t>2018-10-12</t>
-  </si>
-  <si>
-    <t>2018-10-25</t>
-  </si>
-  <si>
-    <t>2019-03-11</t>
-  </si>
-  <si>
-    <t>2020-01-02</t>
-  </si>
-  <si>
-    <t>2020-01-16</t>
-  </si>
-  <si>
-    <t>2020-02-18</t>
-  </si>
-  <si>
-    <t>2020-05-18</t>
-  </si>
-  <si>
-    <t>2020-06-03</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-07-20</t>
-  </si>
-  <si>
-    <t>2020-10-13</t>
-  </si>
-  <si>
-    <t>2020-10-27</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
-  </si>
-  <si>
-    <t>2020-12-10</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>2022-07-08</t>
-  </si>
-  <si>
-    <t>2022-11-07</t>
-  </si>
-  <si>
-    <t>2022-12-20</t>
-  </si>
-  <si>
-    <t>2023-03-28</t>
   </si>
   <si>
     <t>2014-01-03</t>
@@ -7259,6 +7259,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7652,7 +7653,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7689,13 +7690,13 @@
         <v>0.2337249809150044</v>
       </c>
       <c r="C2">
-        <v>0.86467970675801142</v>
+        <v>0.41323301914845179</v>
       </c>
       <c r="D2">
-        <v>14.26394914842318</v>
+        <v>-1.388123564440856E-2</v>
       </c>
       <c r="E2">
-        <v>57.096574783325202</v>
+        <v>58.781050205230713</v>
       </c>
     </row>
   </sheetData>
@@ -7706,10 +7707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7718,10 +7719,9 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7731,16 +7731,13 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1000000</v>
@@ -7748,33 +7745,27 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1246329.1716600009</v>
       </c>
       <c r="D3">
-        <v>0.24632917166000129</v>
-      </c>
-      <c r="E3">
-        <v>0.24632917166000129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.24708336922636159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1160870.3815100021</v>
@@ -7782,16 +7773,13 @@
       <c r="D4">
         <v>-6.8568394364207919E-2</v>
       </c>
-      <c r="E4">
-        <v>-3.489295638473755E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1358833.167400002</v>
@@ -7799,16 +7787,13 @@
       <c r="D5">
         <v>0.17052962074241271</v>
       </c>
-      <c r="E5">
-        <v>5.3887215151542378E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1507999.241590003</v>
@@ -7816,16 +7801,13 @@
       <c r="D6">
         <v>0.1097751201314989</v>
       </c>
-      <c r="E6">
-        <v>2.638133586728109E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1235551.383705003</v>
@@ -7833,16 +7815,13 @@
       <c r="D7">
         <v>-0.1806684316351089</v>
       </c>
-      <c r="E7">
-        <v>-3.9069589567478413E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1445004.532265004</v>
@@ -7850,16 +7829,13 @@
       <c r="D8">
         <v>0.16952200557772071</v>
       </c>
-      <c r="E8">
-        <v>2.644275338872859E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1497303.712095004</v>
@@ -7867,16 +7843,13 @@
       <c r="D9">
         <v>3.6193090514410553E-2</v>
       </c>
-      <c r="E9">
-        <v>5.0919928217716404E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>1371349.055355004</v>
@@ -7884,16 +7857,13 @@
       <c r="D10">
         <v>-8.4120980748632612E-2</v>
       </c>
-      <c r="E10">
-        <v>-1.0923772262138479E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1354741.7843050039</v>
@@ -7901,25 +7871,19 @@
       <c r="D11">
         <v>-1.211017062734676E-2</v>
       </c>
-      <c r="E11">
-        <v>-1.3528725066653811E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>1233724.9809150039</v>
       </c>
       <c r="D12">
-        <v>-8.9328316873375835E-2</v>
-      </c>
-      <c r="E12">
-        <v>-9.4776431322732835E-3</v>
+        <v>-0.1062676801702415</v>
       </c>
     </row>
   </sheetData>
@@ -7933,7 +7897,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7948,19 +7912,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7968,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -7988,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -8008,7 +7972,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8028,7 +7992,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -8048,7 +8012,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8068,7 +8032,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -8088,7 +8052,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8108,7 +8072,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -8128,7 +8092,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -8148,7 +8112,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -8168,7 +8132,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8188,7 +8152,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -8208,7 +8172,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -8228,7 +8192,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -8248,7 +8212,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -8268,7 +8232,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -8288,7 +8252,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8308,7 +8272,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -8328,7 +8292,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -8348,7 +8312,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -8368,7 +8332,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -8388,7 +8352,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -8408,7 +8372,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -8428,7 +8392,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -8448,7 +8412,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -8468,7 +8432,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -8488,7 +8452,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -8508,7 +8472,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -8528,7 +8492,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -8548,7 +8512,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -8568,7 +8532,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -8588,7 +8552,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -8608,7 +8572,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -8628,7 +8592,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -8648,7 +8612,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -8668,7 +8632,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -8688,7 +8652,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -8708,7 +8672,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -8728,7 +8692,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -8748,7 +8712,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -8768,7 +8732,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8788,7 +8752,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43">
         <v>-1</v>
@@ -8808,7 +8772,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -8828,7 +8792,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45">
         <v>-1</v>
@@ -8848,7 +8812,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -8868,7 +8832,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47">
         <v>-1</v>
@@ -8888,7 +8852,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -8908,7 +8872,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>-1</v>
@@ -8928,7 +8892,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -8948,7 +8912,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51">
         <v>-1</v>
@@ -8968,7 +8932,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -8988,7 +8952,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53">
         <v>-1</v>
@@ -9008,7 +8972,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -9028,7 +8992,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55">
         <v>-1</v>
@@ -9048,7 +9012,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -9068,7 +9032,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57">
         <v>-1</v>
@@ -9088,7 +9052,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -9108,7 +9072,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -9128,7 +9092,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -9148,7 +9112,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61">
         <v>-1</v>
@@ -9168,7 +9132,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -9188,7 +9152,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63">
         <v>-1</v>
@@ -9208,7 +9172,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -9228,7 +9192,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65">
         <v>-1</v>
@@ -9248,7 +9212,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -9268,7 +9232,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -9288,7 +9252,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -9308,7 +9272,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -9328,7 +9292,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -9348,7 +9312,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -9368,7 +9332,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -9388,7 +9352,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -9408,7 +9372,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -9428,7 +9392,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -9448,7 +9412,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -9468,7 +9432,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77">
         <v>-1</v>
@@ -9488,7 +9452,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -9508,7 +9472,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>-1</v>
@@ -9528,7 +9492,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -9548,7 +9512,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81">
         <v>-1</v>
@@ -9568,7 +9532,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -9588,7 +9552,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83">
         <v>-1</v>
@@ -9608,7 +9572,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -9634,7 +9598,7 @@
   <dimension ref="A1:B2392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9645,7 +9609,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -9653,7 +9617,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>1000000</v>
@@ -9773,7 +9737,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>991065.99340500007</v>
@@ -9925,7 +9889,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>948175.40217500017</v>
@@ -10069,7 +10033,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>953326.11095000023</v>
@@ -10229,7 +10193,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74">
         <v>962229.66515000025</v>
@@ -10429,7 +10393,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99">
         <v>956371.62863000028</v>
@@ -10461,7 +10425,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B103">
         <v>943811.84475000028</v>
@@ -10469,7 +10433,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B104">
         <v>935561.75965000037</v>
@@ -10477,7 +10441,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B105">
         <v>931521.05145000049</v>
@@ -10493,7 +10457,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B107">
         <v>930674.37332500063</v>
@@ -10565,7 +10529,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B116">
         <v>919570.70770000073</v>
@@ -10629,7 +10593,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B124">
         <v>920738.08314000082</v>
@@ -10669,7 +10633,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B129">
         <v>901739.91934000084</v>
@@ -10733,7 +10697,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B137">
         <v>908218.86909000087</v>
@@ -10861,7 +10825,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B153">
         <v>970119.40170000098</v>
@@ -10989,7 +10953,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B169">
         <v>977281.0341000011</v>
@@ -11045,7 +11009,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B176">
         <v>947849.72190000117</v>
@@ -11141,7 +11105,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B188">
         <v>944542.04712000128</v>
@@ -11157,7 +11121,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B190">
         <v>933389.95227000129</v>
@@ -11269,7 +11233,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B204">
         <v>926359.85089500132</v>
@@ -11381,7 +11345,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B218">
         <v>940110.97069500142</v>
@@ -11389,7 +11353,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B219">
         <v>955296.16389000136</v>
@@ -11573,7 +11537,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B242">
         <v>1246329.1716600009</v>
@@ -11605,7 +11569,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B246">
         <v>1246329.1716600009</v>
@@ -11885,7 +11849,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B281">
         <v>1244755.664425001</v>
@@ -12237,7 +12201,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B325">
         <v>1634024.8192450011</v>
@@ -12365,7 +12329,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B341">
         <v>1635055.634085001</v>
@@ -12397,7 +12361,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B345">
         <v>1503297.369695002</v>
@@ -12437,7 +12401,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B350">
         <v>1558743.2579450021</v>
@@ -12485,7 +12449,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B356">
         <v>1456513.7991950021</v>
@@ -12629,7 +12593,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B374">
         <v>1462582.173545002</v>
@@ -13229,7 +13193,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B449">
         <v>1160750.9761450021</v>
@@ -13237,7 +13201,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B450">
         <v>1195399.4110000019</v>
@@ -13317,7 +13281,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B460">
         <v>1196870.107840002</v>
@@ -13501,7 +13465,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B483">
         <v>1194547.1091000021</v>
@@ -13557,7 +13521,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B490">
         <v>1160870.3815100021</v>
@@ -13757,7 +13721,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B515">
         <v>1158274.158650002</v>
@@ -14021,7 +13985,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B548">
         <v>1250124.306830002</v>
@@ -14029,7 +13993,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B549">
         <v>1243809.4978700019</v>
@@ -14069,7 +14033,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B554">
         <v>1225289.528270002</v>
@@ -14357,7 +14321,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B590">
         <v>1261789.9539200021</v>
@@ -14645,7 +14609,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B626">
         <v>1273040.6797700019</v>
@@ -14773,7 +14737,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B642">
         <v>1306996.028430002</v>
@@ -14853,7 +14817,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B652">
         <v>1267169.0582200021</v>
@@ -15053,7 +15017,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B677">
         <v>1263987.5369400021</v>
@@ -15373,7 +15337,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B717">
         <v>1358833.167400002</v>
@@ -15509,7 +15473,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B734">
         <v>1358833.167400002</v>
@@ -15541,7 +15505,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B738">
         <v>1349937.9684800019</v>
@@ -15797,7 +15761,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B770">
         <v>1384595.6032400019</v>
@@ -15957,7 +15921,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B790">
         <v>1376989.543440002</v>
@@ -16053,7 +16017,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B802">
         <v>1371888.668440002</v>
@@ -16205,7 +16169,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B821">
         <v>1372055.630680003</v>
@@ -16381,7 +16345,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B843">
         <v>1413448.476760003</v>
@@ -16437,7 +16401,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B850">
         <v>1419963.7077850029</v>
@@ -16485,7 +16449,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B856">
         <v>1393798.563010003</v>
@@ -16541,7 +16505,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B863">
         <v>1404990.559710003</v>
@@ -16621,7 +16585,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B873">
         <v>1406524.0944100029</v>
@@ -16781,7 +16745,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B893">
         <v>1438101.217435003</v>
@@ -16869,7 +16833,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B904">
         <v>1429474.766665003</v>
@@ -17013,7 +16977,7 @@
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B922">
         <v>1435048.7349950031</v>
@@ -17285,7 +17249,7 @@
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B956">
         <v>1532821.6405400031</v>
@@ -17445,7 +17409,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B976">
         <v>1507109.565040003</v>
@@ -17453,7 +17417,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B977">
         <v>1507999.241590003</v>
@@ -17461,7 +17425,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B978">
         <v>1507999.241590003</v>
@@ -17477,7 +17441,7 @@
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B980">
         <v>1506718.5602100031</v>
@@ -17637,7 +17601,7 @@
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1000">
         <v>1583461.2052550029</v>
@@ -17829,7 +17793,7 @@
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1024">
         <v>1568596.609255003</v>
@@ -18965,7 +18929,7 @@
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1166">
         <v>1303995.5042950029</v>
@@ -19037,7 +19001,7 @@
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1175">
         <v>1338847.383705003</v>
@@ -19405,7 +19369,7 @@
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1221">
         <v>1235551.383705003</v>
@@ -19757,7 +19721,7 @@
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1265">
         <v>1445004.532265004</v>
@@ -21357,7 +21321,7 @@
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1465">
         <v>1445004.532265004</v>
@@ -21365,7 +21329,7 @@
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1466">
         <v>1452209.7956800039</v>
@@ -21445,7 +21409,7 @@
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1476">
         <v>1440759.6414050041</v>
@@ -21581,7 +21545,7 @@
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1493">
         <v>1432094.4024800039</v>
@@ -22061,7 +22025,7 @@
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1553">
         <v>1381198.8594950039</v>
@@ -22157,7 +22121,7 @@
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1565" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1565">
         <v>1374923.9028700041</v>
@@ -22229,7 +22193,7 @@
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1574" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1574">
         <v>1364077.821745004</v>
@@ -22261,7 +22225,7 @@
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1578" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1578">
         <v>1363672.0988450041</v>
@@ -22405,7 +22369,7 @@
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1596" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1596">
         <v>1501803.837485004</v>
@@ -22845,7 +22809,7 @@
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1651" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1651">
         <v>1503380.554225004</v>
@@ -22925,7 +22889,7 @@
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1661" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1661">
         <v>1463298.343935004</v>
@@ -22997,7 +22961,7 @@
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1670">
         <v>1477895.0191350039</v>
@@ -23181,7 +23145,7 @@
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1693">
         <v>1497303.712095004</v>
@@ -23301,7 +23265,7 @@
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1708">
         <v>1497303.712095004</v>
@@ -23765,7 +23729,7 @@
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1766" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1766">
         <v>1482139.9553550039</v>
@@ -25245,7 +25209,7 @@
     </row>
     <row r="1951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1951" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1951">
         <v>1371349.055355004</v>
@@ -26229,7 +26193,7 @@
     </row>
     <row r="2074" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2074" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2074">
         <v>1261437.443435004</v>
@@ -26869,7 +26833,7 @@
     </row>
     <row r="2154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2154" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2154">
         <v>1274047.916865004</v>
@@ -27117,7 +27081,7 @@
     </row>
     <row r="2185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2185" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2185">
         <v>1354741.7843050039</v>
@@ -27181,7 +27145,7 @@
     </row>
     <row r="2193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2193">
         <v>1354741.7843050039</v>
@@ -27629,7 +27593,7 @@
     </row>
     <row r="2249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2249" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2249">
         <v>1349854.840915004</v>
@@ -28773,7 +28737,7 @@
     </row>
     <row r="2392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2392" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2392">
         <v>1233724.9809150039</v>
